--- a/Assignment0RubricScore.xlsx
+++ b/Assignment0RubricScore.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s516583\Google Drive\assignments\TAWork\StudentAssignmentRepositoriesMachineLearning\Programming Assignment 0 Machine Learning-01-24-2019-09-12-51\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s516583\Google Drive\assignments\MachineLearning\MyAssignments\GitHubRepoForTurningIn\AlleeMachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="B5:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +396,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -407,7 +407,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -418,7 +418,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -429,7 +429,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -441,7 +441,7 @@
       </c>
       <c r="C10">
         <f>SUM(C6+C7+C8+C9)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <f>SUM(D6+D7+D8)</f>
@@ -449,7 +449,7 @@
       </c>
       <c r="E10">
         <f>C10/D10</f>
-        <v>0</v>
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
